--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Angpt1</t>
+  </si>
+  <si>
+    <t>Tie1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angpt1</t>
-  </si>
-  <si>
-    <t>Tie1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -531,25 +531,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H2">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I2">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J2">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.38084166666667</v>
+        <v>56.89751433333333</v>
       </c>
       <c r="N2">
-        <v>220.142525</v>
+        <v>170.692543</v>
       </c>
       <c r="O2">
-        <v>0.9881925120129115</v>
+        <v>0.9873538794860484</v>
       </c>
       <c r="P2">
-        <v>0.9905403402623177</v>
+        <v>0.9895831360385335</v>
       </c>
       <c r="Q2">
-        <v>1484.123437841481</v>
+        <v>8.518032041652777</v>
       </c>
       <c r="R2">
-        <v>13357.11094057333</v>
+        <v>76.662288374875</v>
       </c>
       <c r="S2">
-        <v>0.9428543556160672</v>
+        <v>0.006431000495794432</v>
       </c>
       <c r="T2">
-        <v>0.9591518878050997</v>
+        <v>0.006699101039381019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +593,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H3">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I3">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J3">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1599326666666666</v>
+        <v>0.1599326666666667</v>
       </c>
       <c r="N3">
-        <v>0.4797979999999999</v>
+        <v>0.479798</v>
       </c>
       <c r="O3">
-        <v>0.002153753759655345</v>
+        <v>0.002775343364997773</v>
       </c>
       <c r="P3">
-        <v>0.00215887082324135</v>
+        <v>0.002781609560442347</v>
       </c>
       <c r="Q3">
-        <v>3.234629280414889</v>
+        <v>0.02394325297222222</v>
       </c>
       <c r="R3">
-        <v>29.111663523734</v>
+        <v>0.21548927675</v>
       </c>
       <c r="S3">
-        <v>0.002054939790101334</v>
+        <v>1.807683640802737E-05</v>
       </c>
       <c r="T3">
-        <v>0.0020904600665642</v>
+        <v>1.883043760437112E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H4">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I4">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J4">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.156083</v>
+        <v>0.1362956666666667</v>
       </c>
       <c r="N4">
-        <v>0.468249</v>
+        <v>0.408887</v>
       </c>
       <c r="O4">
-        <v>0.002101911729946469</v>
+        <v>0.002365165804117242</v>
       </c>
       <c r="P4">
-        <v>0.002106905623016225</v>
+        <v>0.002370505896941191</v>
       </c>
       <c r="Q4">
-        <v>3.156769986379667</v>
+        <v>0.02040459709722222</v>
       </c>
       <c r="R4">
-        <v>28.410929877417</v>
+        <v>0.183641373875</v>
       </c>
       <c r="S4">
-        <v>0.002005476266627122</v>
+        <v>1.540519845511879E-05</v>
       </c>
       <c r="T4">
-        <v>0.002040141550628849</v>
+        <v>1.604742233343718E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H5">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I5">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J5">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5280275</v>
+        <v>0.389448</v>
       </c>
       <c r="N5">
-        <v>1.056055</v>
+        <v>0.778896</v>
       </c>
       <c r="O5">
-        <v>0.007110750023925149</v>
+        <v>0.006758168580183656</v>
       </c>
       <c r="P5">
-        <v>0.004751762881958958</v>
+        <v>0.004515618156370602</v>
       </c>
       <c r="Q5">
-        <v>10.67932679396917</v>
+        <v>0.05830361100000001</v>
       </c>
       <c r="R5">
-        <v>64.075960763815</v>
+        <v>0.349821666</v>
       </c>
       <c r="S5">
-        <v>0.006784509647920995</v>
+        <v>4.401844808919655E-05</v>
       </c>
       <c r="T5">
-        <v>0.004601188011612089</v>
+        <v>3.056901556132841E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H6">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I6">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J6">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.032753</v>
+        <v>0.04307233333333333</v>
       </c>
       <c r="N6">
-        <v>0.098259</v>
+        <v>0.129217</v>
       </c>
       <c r="O6">
-        <v>0.0004410724735617376</v>
+        <v>0.0007474427646528689</v>
       </c>
       <c r="P6">
-        <v>0.0004421204094657999</v>
+        <v>0.0007491303477123261</v>
       </c>
       <c r="Q6">
-        <v>0.6624276017496668</v>
+        <v>0.00644828723611111</v>
       </c>
       <c r="R6">
-        <v>5.961848415747</v>
+        <v>0.058034585125</v>
       </c>
       <c r="S6">
-        <v>0.0004208361202747136</v>
+        <v>4.868370793825885E-06</v>
       </c>
       <c r="T6">
-        <v>0.0004281104041295125</v>
+        <v>5.071327216712081E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +841,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H7">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I7">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J7">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>73.38084166666667</v>
+        <v>56.89751433333333</v>
       </c>
       <c r="N7">
-        <v>220.142525</v>
+        <v>170.692543</v>
       </c>
       <c r="O7">
-        <v>0.9881925120129115</v>
+        <v>0.9873538794860484</v>
       </c>
       <c r="P7">
-        <v>0.9905403402623177</v>
+        <v>0.9895831360385335</v>
       </c>
       <c r="Q7">
-        <v>2.973465085175</v>
+        <v>1150.749060096702</v>
       </c>
       <c r="R7">
-        <v>26.761185766575</v>
+        <v>10356.74154087032</v>
       </c>
       <c r="S7">
-        <v>0.001889023807148443</v>
+        <v>0.8688001805850141</v>
       </c>
       <c r="T7">
-        <v>0.001921676173995425</v>
+        <v>0.9050193973049147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,25 +903,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H8">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I8">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J8">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1599326666666666</v>
+        <v>0.1599326666666667</v>
       </c>
       <c r="N8">
-        <v>0.4797979999999999</v>
+        <v>0.479798</v>
       </c>
       <c r="O8">
-        <v>0.002153753759655345</v>
+        <v>0.002775343364997773</v>
       </c>
       <c r="P8">
-        <v>0.00215887082324135</v>
+        <v>0.002781609560442347</v>
       </c>
       <c r="Q8">
-        <v>0.006480631585999999</v>
+        <v>3.23462928041489</v>
       </c>
       <c r="R8">
-        <v>0.058325684274</v>
+        <v>29.111663523734</v>
       </c>
       <c r="S8">
-        <v>4.117104792098703E-06</v>
+        <v>0.002442101932035359</v>
       </c>
       <c r="T8">
-        <v>4.188270235070015E-06</v>
+        <v>0.002543910174143363</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +965,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>20.22494433333334</v>
+      </c>
+      <c r="H9">
+        <v>60.67483300000001</v>
+      </c>
+      <c r="I9">
+        <v>0.8799278542737426</v>
+      </c>
+      <c r="J9">
+        <v>0.9145460996110527</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.040521</v>
-      </c>
-      <c r="H9">
-        <v>0.121563</v>
-      </c>
-      <c r="I9">
-        <v>0.001911594941455862</v>
-      </c>
-      <c r="J9">
-        <v>0.00194002818046413</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>0.156083</v>
+        <v>0.1362956666666667</v>
       </c>
       <c r="N9">
-        <v>0.468249</v>
+        <v>0.408887</v>
       </c>
       <c r="O9">
-        <v>0.002101911729946469</v>
+        <v>0.002365165804117242</v>
       </c>
       <c r="P9">
-        <v>0.002106905623016225</v>
+        <v>0.002370505896941191</v>
       </c>
       <c r="Q9">
-        <v>0.006324639243</v>
+        <v>2.75657227120789</v>
       </c>
       <c r="R9">
-        <v>0.056921753187</v>
+        <v>24.809150440871</v>
       </c>
       <c r="S9">
-        <v>4.01800383035241E-06</v>
+        <v>0.002081175271018516</v>
       </c>
       <c r="T9">
-        <v>4.087456282229813E-06</v>
+        <v>0.002167936922152567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H10">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I10">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J10">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5280275</v>
+        <v>0.389448</v>
       </c>
       <c r="N10">
-        <v>1.056055</v>
+        <v>0.778896</v>
       </c>
       <c r="O10">
-        <v>0.007110750023925149</v>
+        <v>0.006758168580183656</v>
       </c>
       <c r="P10">
-        <v>0.004751762881958958</v>
+        <v>0.004515618156370602</v>
       </c>
       <c r="Q10">
-        <v>0.0213962023275</v>
+        <v>7.876564120728002</v>
       </c>
       <c r="R10">
-        <v>0.128377213965</v>
+        <v>47.259384724368</v>
       </c>
       <c r="S10">
-        <v>1.359287377569246E-05</v>
+        <v>0.00594670077758123</v>
       </c>
       <c r="T10">
-        <v>9.218553897883828E-06</v>
+        <v>0.004129740972241587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H11">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I11">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J11">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.032753</v>
+        <v>0.04307233333333333</v>
       </c>
       <c r="N11">
-        <v>0.098259</v>
+        <v>0.129217</v>
       </c>
       <c r="O11">
-        <v>0.0004410724735617376</v>
+        <v>0.0007474427646528689</v>
       </c>
       <c r="P11">
-        <v>0.0004421204094657999</v>
+        <v>0.0007491303477123261</v>
       </c>
       <c r="Q11">
-        <v>0.001327184313</v>
+        <v>0.8711355439734445</v>
       </c>
       <c r="R11">
-        <v>0.011944658817</v>
+        <v>7.840219895761001</v>
       </c>
       <c r="S11">
-        <v>8.431519092760421E-07</v>
+        <v>0.0006576957080934329</v>
       </c>
       <c r="T11">
-        <v>8.577260535219919E-07</v>
+        <v>0.0006851142376005795</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H12">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I12">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J12">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>73.38084166666667</v>
+        <v>56.89751433333333</v>
       </c>
       <c r="N12">
-        <v>220.142525</v>
+        <v>170.692543</v>
       </c>
       <c r="O12">
-        <v>0.9881925120129115</v>
+        <v>0.9873538794860484</v>
       </c>
       <c r="P12">
-        <v>0.9905403402623177</v>
+        <v>0.9895831360385335</v>
       </c>
       <c r="Q12">
-        <v>68.39219190764167</v>
+        <v>148.509510804263</v>
       </c>
       <c r="R12">
-        <v>410.35315144585</v>
+        <v>891.0570648255779</v>
       </c>
       <c r="S12">
-        <v>0.04344913258969596</v>
+        <v>0.1121226984052398</v>
       </c>
       <c r="T12">
-        <v>0.02946677628322259</v>
+        <v>0.0778646376942379</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H13">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I13">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J13">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1599326666666666</v>
+        <v>0.1599326666666667</v>
       </c>
       <c r="N13">
-        <v>0.4797979999999999</v>
+        <v>0.479798</v>
       </c>
       <c r="O13">
-        <v>0.002153753759655345</v>
+        <v>0.002775343364997773</v>
       </c>
       <c r="P13">
-        <v>0.00215887082324135</v>
+        <v>0.002781609560442347</v>
       </c>
       <c r="Q13">
-        <v>0.1490599641886666</v>
+        <v>0.417443931718</v>
       </c>
       <c r="R13">
-        <v>0.8943597851319999</v>
+        <v>2.504663590308</v>
       </c>
       <c r="S13">
-        <v>9.469686476191248E-05</v>
+        <v>0.0003151645965543865</v>
       </c>
       <c r="T13">
-        <v>6.422248644207942E-05</v>
+        <v>0.0002188689486946126</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H14">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I14">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J14">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.156083</v>
+        <v>0.1362956666666667</v>
       </c>
       <c r="N14">
-        <v>0.468249</v>
+        <v>0.408887</v>
       </c>
       <c r="O14">
-        <v>0.002101911729946469</v>
+        <v>0.002365165804117242</v>
       </c>
       <c r="P14">
-        <v>0.002106905623016225</v>
+        <v>0.002370505896941191</v>
       </c>
       <c r="Q14">
-        <v>0.145472009411</v>
+        <v>0.355748454367</v>
       </c>
       <c r="R14">
-        <v>0.8728320564659999</v>
+        <v>2.134490726202</v>
       </c>
       <c r="S14">
-        <v>9.241745948899489E-05</v>
+        <v>0.0002685853346436072</v>
       </c>
       <c r="T14">
-        <v>6.267661610514685E-05</v>
+        <v>0.0001865215524551875</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H15">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I15">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J15">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5280275</v>
+        <v>0.389448</v>
       </c>
       <c r="N15">
-        <v>1.056055</v>
+        <v>0.778896</v>
       </c>
       <c r="O15">
-        <v>0.007110750023925149</v>
+        <v>0.006758168580183656</v>
       </c>
       <c r="P15">
-        <v>0.004751762881958958</v>
+        <v>0.004515618156370602</v>
       </c>
       <c r="Q15">
-        <v>0.4921306064675</v>
+        <v>1.016507182104</v>
       </c>
       <c r="R15">
-        <v>1.96852242587</v>
+        <v>4.066028728416</v>
       </c>
       <c r="S15">
-        <v>0.0003126475022284633</v>
+        <v>0.0007674493545132288</v>
       </c>
       <c r="T15">
-        <v>0.0001413563164489852</v>
+        <v>0.0003553081685676869</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H16">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I16">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J16">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.032753</v>
+        <v>0.04307233333333333</v>
       </c>
       <c r="N16">
-        <v>0.098259</v>
+        <v>0.129217</v>
       </c>
       <c r="O16">
-        <v>0.0004410724735617376</v>
+        <v>0.0007474427646528689</v>
       </c>
       <c r="P16">
-        <v>0.0004421204094657999</v>
+        <v>0.0007491303477123261</v>
       </c>
       <c r="Q16">
-        <v>0.030526352801</v>
+        <v>0.112424087897</v>
       </c>
       <c r="R16">
-        <v>0.183158116806</v>
+        <v>0.6745445273819999</v>
       </c>
       <c r="S16">
-        <v>1.939320137774805E-05</v>
+        <v>8.487868576561001E-05</v>
       </c>
       <c r="T16">
-        <v>1.315227928276542E-05</v>
+        <v>5.894478289503449E-05</v>
       </c>
     </row>
   </sheetData>
